--- a/Trial Test/AcceleratedCorrosion_db075_Budget.xlsx
+++ b/Trial Test/AcceleratedCorrosion_db075_Budget.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\Experimental Phase\Trial Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\ExperimentalProgram\Trial Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23130" windowHeight="9360"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23130" windowHeight="9150" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AcceleratedCorrosion corrected" sheetId="5" r:id="rId1"/>
@@ -672,9 +672,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,6 +679,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,19 +1139,19 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <f>+Table13[[#This Row],[Corrosion Level]]</f>
         <v>0.05</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="25">
         <f>+Table13[[#This Row],[mloss]]</f>
         <v>57.628914420000001</v>
       </c>
@@ -1198,11 +1198,11 @@
         <f>+ROUND(Table13[[#This Row],[t(days)]],2)</f>
         <v>15.38</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <f>Table13[[#This Row],[Corrosion Level]]*0.121*21*453.5924</f>
         <v>57.628914420000001</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <f>+((N10*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>15.645454833469243</v>
       </c>
@@ -1239,18 +1239,18 @@
         <f>+Table13[[#This Row],[Corrosion Level]]</f>
         <v>0.1</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <f>+Table13[[#This Row],[mloss]]</f>
         <v>115.25782884</v>
       </c>
       <c r="M11" s="16">
         <v>15</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <f>Table13[[#This Row],[Corrosion Level]]*0.121*21*453.5924</f>
         <v>115.25782884</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <f>+((N11*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>31.290909666938486</v>
       </c>
@@ -1287,18 +1287,18 @@
         <f>+Table13[[#This Row],[Corrosion Level]]</f>
         <v>0.15</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <f>+Table13[[#This Row],[mloss]]</f>
         <v>172.88674326</v>
       </c>
       <c r="M12" s="16">
         <v>22.5</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <f>Table13[[#This Row],[Corrosion Level]]*0.121*21*453.5924</f>
         <v>172.88674326</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="26">
         <f>+((N12*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>46.936364500407727</v>
       </c>
@@ -1335,18 +1335,18 @@
         <f>+Table13[[#This Row],[Corrosion Level]]</f>
         <v>0.2</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <f>+Table13[[#This Row],[mloss]]</f>
         <v>230.51565768</v>
       </c>
       <c r="M13" s="16">
         <v>30</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <f>Table13[[#This Row],[Corrosion Level]]*0.121*21*453.5924</f>
         <v>230.51565768</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <f>+((N13*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>62.581819333876972</v>
       </c>
@@ -1383,18 +1383,18 @@
         <f>+Table13[[#This Row],[Corrosion Level]]</f>
         <v>0.25</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <f>+Table13[[#This Row],[mloss]]</f>
         <v>288.1445721</v>
       </c>
       <c r="M14" s="16">
         <v>37.5</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <f>Table13[[#This Row],[Corrosion Level]]*0.121*21*453.5924</f>
         <v>288.1445721</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="26">
         <f>+((N14*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>78.227274167346209</v>
       </c>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,13 +2454,13 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="10">
         <f>SUM(F4:F23)</f>
         <v>1837.0100000000002</v>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,13 +3633,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="10">
         <f>SUM(F4:F24)</f>
         <v>1334.1200000000001</v>

--- a/Trial Test/AcceleratedCorrosion_db075_Budget.xlsx
+++ b/Trial Test/AcceleratedCorrosion_db075_Budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23130" windowHeight="9150" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23130" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="AcceleratedCorrosion corrected" sheetId="5" r:id="rId1"/>
@@ -1024,26 +1024,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.41796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26171875" customWidth="1"/>
+    <col min="11" max="11" width="17.41796875" customWidth="1"/>
+    <col min="12" max="12" width="14.578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.41796875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>0.05</v>
       </c>
@@ -1206,8 +1206,12 @@
         <f>+((N10*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>15.645454833469243</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f>+N10/1000*2.2</f>
+        <v>0.12678361172400002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -1254,8 +1258,12 @@
         <f>+((N11*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>31.290909666938486</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q14" si="3">+N11/1000*2.2</f>
+        <v>0.25356722344800003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>172.88674326</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C14" si="3">+C11</f>
+        <f t="shared" ref="C12:C14" si="4">+C11</f>
         <v>0.15</v>
       </c>
       <c r="D12">
@@ -1302,8 +1310,12 @@
         <f>+((N12*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>46.936364500407727</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0.38035083517200002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>230.51565768</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="D13">
@@ -1350,8 +1362,12 @@
         <f>+((N13*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>62.581819333876972</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0.50713444689600007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>288.1445721</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="D14">
@@ -1398,18 +1414,22 @@
         <f>+((N14*2*96485)/(Table13[[#This Row],[Current (A)]]*54.845))/(60*60*24)</f>
         <v>78.227274167346209</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0.63391805862000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23">
         <v>0.05</v>
       </c>
@@ -1422,55 +1442,55 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24">
         <v>0.1</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:B24" si="4">+A21*$B$5/2.54*1000</f>
+        <f t="shared" ref="B21:B24" si="5">+A21*$B$5/2.54*1000</f>
         <v>75</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C24" si="5">+B21/($C$14*1000000*0.5)*360</f>
+        <f t="shared" ref="C21:C24" si="6">+B21/($C$14*1000000*0.5)*360</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="23">
         <v>0.15</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24">
         <v>0.2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23">
         <v>0.25</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1491,20 +1511,20 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.41796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26171875" customWidth="1"/>
+    <col min="11" max="11" width="17.41796875" customWidth="1"/>
+    <col min="12" max="12" width="14.578125" customWidth="1"/>
+    <col min="13" max="13" width="12.41796875" customWidth="1"/>
+    <col min="14" max="14" width="18.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1636,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>0.05</v>
       </c>
@@ -1668,7 +1688,7 @@
         <v>469.36364500407717</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -1716,7 +1736,7 @@
         <v>938.72729000815434</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.15</v>
       </c>
@@ -1764,7 +1784,7 @@
         <v>1408.0909350122315</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>1877.4545800163087</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -1860,17 +1880,17 @@
         <v>2346.8182250203859</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23">
         <v>0.05</v>
       </c>
@@ -1883,7 +1903,7 @@
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="24">
         <v>0.1</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="23">
         <v>0.15</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="24">
         <v>0.2</v>
       </c>
@@ -1922,7 +1942,7 @@
         <v>21.599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23">
         <v>0.25</v>
       </c>
@@ -1952,15 +1972,15 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -2007,7 +2027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2031,7 +2051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2053,7 +2073,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2077,7 +2097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2153,7 +2173,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2177,7 +2197,7 @@
         <v>295096</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2199,7 +2219,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2221,7 +2241,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2245,7 +2265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -2269,7 +2289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2291,7 +2311,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2313,7 +2333,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2335,7 +2355,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2359,7 +2379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2383,7 +2403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2407,7 +2427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2431,7 +2451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2453,7 +2473,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="28" t="s">
         <v>69</v>
       </c>
@@ -2466,7 +2486,7 @@
         <v>1837.0100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -2491,7 +2511,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2505,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>3.8225070180000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>4.6912586129999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -2552,12 +2572,12 @@
         <v>148.19775124007987</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>53</v>
       </c>
@@ -2568,7 +2588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>55</v>
       </c>
@@ -2591,7 +2611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>58</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>3.9611896947316168E-5</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -2618,7 +2638,7 @@
         <v>1.5844758778926467E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>59</v>
       </c>
@@ -2629,7 +2649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>61</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>7.9223793894632341E-7</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>116</v>
       </c>
@@ -2647,7 +2667,7 @@
         <v>51.103035000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>94</v>
       </c>
@@ -2665,7 +2685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>97</v>
       </c>
@@ -2705,16 +2725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>117</v>
       </c>
@@ -2726,7 +2746,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2736,7 +2756,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>118</v>
       </c>
@@ -2750,7 +2770,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>119</v>
       </c>
@@ -2766,7 +2786,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="19" t="s">
         <v>120</v>
       </c>
@@ -2782,7 +2802,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
         <v>122</v>
       </c>
@@ -2799,7 +2819,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19" t="s">
         <v>121</v>
       </c>
@@ -2816,7 +2836,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
         <v>127</v>
       </c>
@@ -2836,7 +2856,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="s">
         <v>125</v>
       </c>
@@ -2853,7 +2873,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="19" t="s">
         <v>126</v>
       </c>
@@ -2870,7 +2890,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="22" t="s">
         <v>128</v>
       </c>
@@ -2900,7 +2920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -2913,7 +2933,7 @@
         <v>1.7384635885230528</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="22" t="str">
         <f>+CONCATENATE("Components quantitty for ",H11," L")</f>
         <v>Components quantitty for 6.5807794384778 L</v>
@@ -2926,7 +2946,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2945,7 +2965,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
@@ -2964,7 +2984,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
         <v>32</v>
       </c>
@@ -2983,7 +3003,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
         <v>129</v>
       </c>
@@ -3002,7 +3022,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3012,7 +3032,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -3022,7 +3042,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3034,7 +3054,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3057,7 +3077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3069,7 +3089,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -3095,15 +3115,15 @@
       <selection activeCell="D11" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -3126,7 +3146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3174,7 +3194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3222,7 +3242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -3246,7 +3266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3300,7 +3320,7 @@
         <v>295096</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3322,7 +3342,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3370,7 +3390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -3394,7 +3414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3418,7 +3438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3466,7 +3486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -3488,7 +3508,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -3536,7 +3556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3608,7 +3628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3632,7 +3652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="28" t="s">
         <v>69</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>1334.1200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -3684,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -3700,7 +3720,7 @@
         <v>3.8225070180000005</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -3716,7 +3736,7 @@
         <v>4.6912586129999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -3731,12 +3751,12 @@
         <v>148.19775124007987</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>53</v>
       </c>
@@ -3747,7 +3767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -3758,7 +3778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>55</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -3779,7 +3799,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -3788,7 +3808,7 @@
         <v>3.9611896947316168E-5</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>58</v>
       </c>
@@ -3797,7 +3817,7 @@
         <v>1.5844758778926467E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>59</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -3817,7 +3837,7 @@
         <v>7.9223793894632341E-7</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>67</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>51.103035000000006</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -3844,7 +3864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>97</v>
       </c>
